--- a/udemy/excel/fbtoadv/03_EnteringEditing/3.15/book.xlsx
+++ b/udemy/excel/fbtoadv/03_EnteringEditing/3.15/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turner\source\repos\Scholarship\udemy\excel\fbtoadv\03_EnteringEditing\3.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39A302-AC07-4222-932B-A29918C9D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C4FC6-9EFE-42D1-A301-F2F2CBB3B20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA333EC5-0160-4AF0-98AC-204B12A9752D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>relative. Add last 5 skipping sp</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>absolute ref. $F$10</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B19983-D360-4297-937D-6C0F415287ED}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,14 +435,24 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -449,8 +468,14 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -463,8 +488,22 @@
       <c r="D4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>B4+C4+D4</f>
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <f>F4/$F10</f>
+        <v>0.63278590321750527</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -477,8 +516,19 @@
       <c r="D5">
         <v>125.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>B5+C5+D5</f>
+        <v>350.94</v>
+      </c>
+      <c r="G5">
+        <f>F5/$F$10</f>
+        <v>7.4023294958383778E-2</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -491,8 +541,16 @@
       <c r="D6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>B6+C6+D6</f>
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <f>F6/$F$10</f>
+        <v>0.10546431720291756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -505,8 +563,23 @@
       <c r="D7">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>B7+C7+D7</f>
+        <v>825</v>
+      </c>
+      <c r="G7">
+        <f>F7/$F$10</f>
+        <v>0.17401612338481395</v>
+      </c>
+      <c r="L7">
+        <f>L1+L2+L3+L4+L5</f>
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -519,10 +592,38 @@
       <c r="D8">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>B8+C8+D8</f>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f>F8/$F$10</f>
+        <v>1.3710361236379282E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
+      </c>
+      <c r="B10">
+        <f>B4+B5+B6+B7+B8</f>
+        <v>1575.56</v>
+      </c>
+      <c r="C10">
+        <f>C4+C5+C6+C7+C8</f>
+        <v>1535.19</v>
+      </c>
+      <c r="D10">
+        <f>D4+D5+D6+D7+D8</f>
+        <v>1630.19</v>
+      </c>
+      <c r="F10">
+        <f>F4+F5+F6+F7+F8</f>
+        <v>4740.9400000000005</v>
+      </c>
+      <c r="G10">
+        <f>F10/$F$10</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/udemy/excel/fbtoadv/03_EnteringEditing/3.15/book.xlsx
+++ b/udemy/excel/fbtoadv/03_EnteringEditing/3.15/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turner\source\repos\Scholarship\udemy\excel\fbtoadv\03_EnteringEditing\3.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C4FC6-9EFE-42D1-A301-F2F2CBB3B20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F44BA-5A55-4637-8B8F-4BF95E2656DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA333EC5-0160-4AF0-98AC-204B12A9752D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -56,19 +56,7 @@
     <t>Candy</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>relative. Add last 5 skipping sp</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>absolute ref. $F$10</t>
   </si>
 </sst>
 </file>
@@ -424,35 +412,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B19983-D360-4297-937D-6C0F415287ED}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -465,17 +447,8 @@
       <c r="D3" s="1">
         <v>45008</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -488,22 +461,8 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="F4">
-        <f>B4+C4+D4</f>
-        <v>3000</v>
-      </c>
-      <c r="G4">
-        <f>F4/$F10</f>
-        <v>0.63278590321750527</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,19 +475,8 @@
       <c r="D5">
         <v>125.19</v>
       </c>
-      <c r="F5">
-        <f>B5+C5+D5</f>
-        <v>350.94</v>
-      </c>
-      <c r="G5">
-        <f>F5/$F$10</f>
-        <v>7.4023294958383778E-2</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -541,18 +489,10 @@
       <c r="D6">
         <v>200</v>
       </c>
-      <c r="F6">
-        <f>B6+C6+D6</f>
-        <v>500</v>
-      </c>
-      <c r="G6">
-        <f>F6/$F$10</f>
-        <v>0.10546431720291756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -563,23 +503,8 @@
       <c r="D7">
         <v>275</v>
       </c>
-      <c r="F7">
-        <f>B7+C7+D7</f>
-        <v>825</v>
-      </c>
-      <c r="G7">
-        <f>F7/$F$10</f>
-        <v>0.17401612338481395</v>
-      </c>
-      <c r="L7">
-        <f>L1+L2+L3+L4+L5</f>
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -591,39 +516,6 @@
       </c>
       <c r="D8">
         <v>30</v>
-      </c>
-      <c r="F8">
-        <f>B8+C8+D8</f>
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <f>F8/$F$10</f>
-        <v>1.3710361236379282E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <f>B4+B5+B6+B7+B8</f>
-        <v>1575.56</v>
-      </c>
-      <c r="C10">
-        <f>C4+C5+C6+C7+C8</f>
-        <v>1535.19</v>
-      </c>
-      <c r="D10">
-        <f>D4+D5+D6+D7+D8</f>
-        <v>1630.19</v>
-      </c>
-      <c r="F10">
-        <f>F4+F5+F6+F7+F8</f>
-        <v>4740.9400000000005</v>
-      </c>
-      <c r="G10">
-        <f>F10/$F$10</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
